--- a/Results/attack success mechanism/restricted/adjective_analysis.xlsx
+++ b/Results/attack success mechanism/restricted/adjective_analysis.xlsx
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -714,7 +714,7 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" style="4" customWidth="1"/>

--- a/Results/attack success mechanism/restricted/adjective_analysis.xlsx
+++ b/Results/attack success mechanism/restricted/adjective_analysis.xlsx
@@ -308,12 +308,6 @@
   </si>
   <si>
     <t>[
-        "sakura&lt;/w&gt;",
-        "journalists&lt;/w&gt;"
-    ]</t>
-  </si>
-  <si>
-    <t>[
         "lungs&lt;/w&gt;"
     ]</t>
   </si>
@@ -345,6 +339,12 @@
   </si>
   <si>
     <t>ASR by removing critical tokens</t>
+  </si>
+  <si>
+    <t>[
+        "sakura&lt;/w&gt;", "ose&lt;/w&gt;",
+        "journalists&lt;/w&gt;",
+    ]</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" style="4" customWidth="1"/>
@@ -749,13 +749,13 @@
         <v>72</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J19">
         <v>8.7400000000000005E-2</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20">
         <v>2.3999999999999998E-3</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21">
         <v>0.23080000000000001</v>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23">
         <v>0.18659999999999999</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>0.17460000000000001</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25">
         <v>0.20979999999999999</v>
